--- a/projet_simplifie.xlsx
+++ b/projet_simplifie.xlsx
@@ -487,7 +487,7 @@
   <dimension ref="C4:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
